--- a/jxls-poi/src/test/resources/org/jxls3/GroupByTest_desc.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/GroupByTest_desc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos-2203\jxls3\jxls-poi\src\test\resources\org\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587CA9B-DD27-4318-963B-EA375920570C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD7FF58-0153-4A4F-8CA2-6A4F5215B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21570" windowHeight="11385" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" var="g" groupBy="salaryGroup" groupOrder="DESC" lastCell="C3")</t>
+jx:each(items="employees" groupBy="salaryGroup" groupOrder="DESC" lastCell="C3")</t>
         </r>
       </text>
     </comment>
@@ -109,7 +109,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="g.items" var="e" lastCell="C3")</t>
+jx:each(items="_group.items" var="e" lastCell="C3")</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,7 @@
     <t>Salary group</t>
   </si>
   <si>
-    <t>${g.item.salaryGroup}</t>
+    <t>${_group.item.salaryGroup}</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
